--- a/figures/bayesgraph/Changing.xlsx
+++ b/figures/bayesgraph/Changing.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ChangingAll-Free" sheetId="1" r:id="rId1"/>
     <sheet name="ChangingAll-Meeting" sheetId="3" r:id="rId2"/>
     <sheet name="ChangingSet-Free" sheetId="2" r:id="rId3"/>
-    <sheet name="ChangingSet-Meeting" sheetId="6" r:id="rId4"/>
+    <sheet name="ChangingSet-Meeting" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="16">
   <si>
     <t>Threhold</t>
   </si>
@@ -53,6 +53,29 @@
   </si>
   <si>
     <t>WarningRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>without_code</t>
+  </si>
+  <si>
+    <t>without_context</t>
+  </si>
+  <si>
+    <t>without_evolusion</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>WR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -380,7 +406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1640,29 +1666,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1676,40 +1705,2023 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>51.990630000000003</v>
+      </c>
+      <c r="C3">
+        <v>83.333330000000004</v>
+      </c>
+      <c r="D3">
+        <v>64.236109999999996</v>
+      </c>
+      <c r="F3">
+        <v>36.768149999999999</v>
+      </c>
+      <c r="G3">
+        <v>89.171970000000002</v>
+      </c>
+      <c r="H3">
+        <v>48.611109999999996</v>
+      </c>
+      <c r="J3">
+        <v>48.009369999999997</v>
+      </c>
+      <c r="K3">
+        <v>83.414630000000002</v>
+      </c>
+      <c r="L3">
+        <v>59.375</v>
+      </c>
+      <c r="N3">
+        <v>44.028100000000002</v>
+      </c>
+      <c r="O3">
+        <v>85.638300000000001</v>
+      </c>
+      <c r="P3">
+        <v>55.90278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.05</v>
+      </c>
+      <c r="B4">
+        <v>60.421550000000003</v>
+      </c>
+      <c r="C4">
+        <v>82.945740000000001</v>
+      </c>
+      <c r="D4">
+        <v>74.30556</v>
+      </c>
+      <c r="F4">
+        <v>49.180329999999998</v>
+      </c>
+      <c r="G4">
+        <v>85.714290000000005</v>
+      </c>
+      <c r="H4">
+        <v>62.5</v>
+      </c>
+      <c r="J4">
+        <v>59.484780000000001</v>
+      </c>
+      <c r="K4">
+        <v>79.921260000000004</v>
+      </c>
+      <c r="L4">
+        <v>70.486109999999996</v>
+      </c>
+      <c r="N4">
+        <v>51.990630000000003</v>
+      </c>
+      <c r="O4">
+        <v>84.234229999999997</v>
+      </c>
+      <c r="P4">
+        <v>64.93056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.1</v>
+      </c>
+      <c r="B5">
+        <v>63.934429999999999</v>
+      </c>
+      <c r="C5">
+        <v>81.318680000000001</v>
+      </c>
+      <c r="D5">
+        <v>77.083330000000004</v>
+      </c>
+      <c r="F5">
+        <v>56.440280000000001</v>
+      </c>
+      <c r="G5">
+        <v>82.987549999999999</v>
+      </c>
+      <c r="H5">
+        <v>69.44444</v>
+      </c>
+      <c r="J5">
+        <v>62.997660000000003</v>
+      </c>
+      <c r="K5">
+        <v>79.182159999999996</v>
+      </c>
+      <c r="L5">
+        <v>73.958330000000004</v>
+      </c>
+      <c r="N5">
+        <v>58.31382</v>
+      </c>
+      <c r="O5">
+        <v>83.534139999999994</v>
+      </c>
+      <c r="P5">
+        <v>72.222219999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.15</v>
+      </c>
+      <c r="B6">
+        <v>65.807959999999994</v>
+      </c>
+      <c r="C6">
+        <v>80.427049999999994</v>
+      </c>
+      <c r="D6">
+        <v>78.472219999999993</v>
+      </c>
+      <c r="F6">
+        <v>60.421550000000003</v>
+      </c>
+      <c r="G6">
+        <v>83.720929999999996</v>
+      </c>
+      <c r="H6">
+        <v>75</v>
+      </c>
+      <c r="J6">
+        <v>65.10539</v>
+      </c>
+      <c r="K6">
+        <v>78.776979999999995</v>
+      </c>
+      <c r="L6">
+        <v>76.041669999999996</v>
+      </c>
+      <c r="N6">
+        <v>60.655740000000002</v>
+      </c>
+      <c r="O6">
+        <v>83.011579999999995</v>
+      </c>
+      <c r="P6">
+        <v>74.652780000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.2</v>
+      </c>
+      <c r="B7">
+        <v>67.447310000000002</v>
+      </c>
+      <c r="C7">
+        <v>80.208330000000004</v>
+      </c>
+      <c r="D7">
+        <v>80.208330000000004</v>
+      </c>
+      <c r="F7">
+        <v>62.529269999999997</v>
+      </c>
+      <c r="G7">
+        <v>82.771540000000002</v>
+      </c>
+      <c r="H7">
+        <v>76.736109999999996</v>
+      </c>
+      <c r="J7">
+        <v>65.807959999999994</v>
+      </c>
+      <c r="K7">
+        <v>78.647689999999997</v>
+      </c>
+      <c r="L7">
+        <v>76.736109999999996</v>
+      </c>
+      <c r="N7">
+        <v>62.763469999999998</v>
+      </c>
+      <c r="O7">
+        <v>83.208960000000005</v>
+      </c>
+      <c r="P7">
+        <v>77.43056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.25</v>
+      </c>
+      <c r="B8">
+        <v>68.852459999999994</v>
+      </c>
+      <c r="C8">
+        <v>79.931970000000007</v>
+      </c>
+      <c r="D8">
+        <v>81.597219999999993</v>
+      </c>
+      <c r="F8">
+        <v>64.168620000000004</v>
+      </c>
+      <c r="G8">
+        <v>82.116789999999995</v>
+      </c>
+      <c r="H8">
+        <v>78.125</v>
+      </c>
+      <c r="J8">
+        <v>67.6815</v>
+      </c>
+      <c r="K8">
+        <v>77.854669999999999</v>
+      </c>
+      <c r="L8">
+        <v>78.125</v>
+      </c>
+      <c r="N8">
+        <v>65.573769999999996</v>
+      </c>
+      <c r="O8">
+        <v>81.071430000000007</v>
+      </c>
+      <c r="P8">
+        <v>78.81944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>69.320840000000004</v>
+      </c>
+      <c r="C9">
+        <v>79.391890000000004</v>
+      </c>
+      <c r="D9">
+        <v>81.597219999999993</v>
+      </c>
+      <c r="F9">
+        <v>65.339579999999998</v>
+      </c>
+      <c r="G9">
+        <v>81.720429999999993</v>
+      </c>
+      <c r="H9">
+        <v>79.166669999999996</v>
+      </c>
+      <c r="J9">
+        <v>69.789230000000003</v>
+      </c>
+      <c r="K9">
+        <v>77.516779999999997</v>
+      </c>
+      <c r="L9">
+        <v>80.208330000000004</v>
+      </c>
+      <c r="N9">
+        <v>66.510540000000006</v>
+      </c>
+      <c r="O9">
+        <v>79.929580000000001</v>
+      </c>
+      <c r="P9">
+        <v>78.81944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.35</v>
+      </c>
+      <c r="B10">
+        <v>71.428569999999993</v>
+      </c>
+      <c r="C10">
+        <v>78.032790000000006</v>
+      </c>
+      <c r="D10">
+        <v>82.638890000000004</v>
+      </c>
+      <c r="F10">
+        <v>66.510540000000006</v>
+      </c>
+      <c r="G10">
+        <v>80.985919999999993</v>
+      </c>
+      <c r="H10">
+        <v>79.861109999999996</v>
+      </c>
+      <c r="J10">
+        <v>70.725999999999999</v>
+      </c>
+      <c r="K10">
+        <v>77.483440000000002</v>
+      </c>
+      <c r="L10">
+        <v>81.25</v>
+      </c>
+      <c r="N10">
+        <v>67.21311</v>
+      </c>
+      <c r="O10">
+        <v>79.442509999999999</v>
+      </c>
+      <c r="P10">
+        <v>79.166669999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.4</v>
+      </c>
+      <c r="B11">
+        <v>72.365340000000003</v>
+      </c>
+      <c r="C11">
+        <v>77.993530000000007</v>
+      </c>
+      <c r="D11">
+        <v>83.68056</v>
+      </c>
+      <c r="F11">
+        <v>68.384069999999994</v>
+      </c>
+      <c r="G11">
+        <v>79.794520000000006</v>
+      </c>
+      <c r="H11">
+        <v>80.902780000000007</v>
+      </c>
+      <c r="J11">
+        <v>71.428569999999993</v>
+      </c>
+      <c r="K11">
+        <v>77.704920000000001</v>
+      </c>
+      <c r="L11">
+        <v>82.291669999999996</v>
+      </c>
+      <c r="N11">
+        <v>67.6815</v>
+      </c>
+      <c r="O11">
+        <v>79.584779999999995</v>
+      </c>
+      <c r="P11">
+        <v>79.861109999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.45</v>
+      </c>
+      <c r="B12">
+        <v>74.004679999999993</v>
+      </c>
+      <c r="C12">
+        <v>77.531649999999999</v>
+      </c>
+      <c r="D12">
+        <v>85.06944</v>
+      </c>
+      <c r="F12">
+        <v>68.852459999999994</v>
+      </c>
+      <c r="G12">
+        <v>79.591840000000005</v>
+      </c>
+      <c r="H12">
+        <v>81.25</v>
+      </c>
+      <c r="J12">
+        <v>72.131150000000005</v>
+      </c>
+      <c r="K12">
+        <v>77.922079999999994</v>
+      </c>
+      <c r="L12">
+        <v>83.333330000000004</v>
+      </c>
+      <c r="N12">
+        <v>69.555040000000005</v>
+      </c>
+      <c r="O12">
+        <v>79.461280000000002</v>
+      </c>
+      <c r="P12">
+        <v>81.94444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.5</v>
+      </c>
+      <c r="B13">
+        <v>74.707260000000005</v>
+      </c>
+      <c r="C13">
+        <v>77.429469999999995</v>
+      </c>
+      <c r="D13">
+        <v>85.763890000000004</v>
+      </c>
+      <c r="F13">
+        <v>70.725999999999999</v>
+      </c>
+      <c r="G13">
+        <v>79.470200000000006</v>
+      </c>
+      <c r="H13">
+        <v>83.333330000000004</v>
+      </c>
+      <c r="J13">
+        <v>74.004679999999993</v>
+      </c>
+      <c r="K13">
+        <v>76.89873</v>
+      </c>
+      <c r="L13">
+        <v>84.375</v>
+      </c>
+      <c r="N13">
+        <v>70.725999999999999</v>
+      </c>
+      <c r="O13">
+        <v>78.807950000000005</v>
+      </c>
+      <c r="P13">
+        <v>82.638890000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.01</v>
+      </c>
+      <c r="B19">
+        <v>20.125789999999999</v>
+      </c>
+      <c r="C19">
+        <v>84.375</v>
+      </c>
+      <c r="D19">
+        <v>34.615380000000002</v>
+      </c>
+      <c r="F19">
+        <v>18.867920000000002</v>
+      </c>
+      <c r="G19">
+        <v>80</v>
+      </c>
+      <c r="H19">
+        <v>30.76923</v>
+      </c>
+      <c r="J19">
+        <v>22.64151</v>
+      </c>
+      <c r="K19">
+        <v>80.55556</v>
+      </c>
+      <c r="L19">
+        <v>37.179490000000001</v>
+      </c>
+      <c r="N19">
+        <v>23.270440000000001</v>
+      </c>
+      <c r="O19">
+        <v>81.08108</v>
+      </c>
+      <c r="P19">
+        <v>38.461539999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.05</v>
+      </c>
+      <c r="B20">
+        <v>30.188680000000002</v>
+      </c>
+      <c r="C20">
+        <v>79.166669999999996</v>
+      </c>
+      <c r="D20">
+        <v>48.717950000000002</v>
+      </c>
+      <c r="F20">
+        <v>27.044029999999999</v>
+      </c>
+      <c r="G20">
+        <v>79.069770000000005</v>
+      </c>
+      <c r="H20">
+        <v>43.589739999999999</v>
+      </c>
+      <c r="J20">
+        <v>30.188680000000002</v>
+      </c>
+      <c r="K20">
+        <v>77.083330000000004</v>
+      </c>
+      <c r="L20">
+        <v>47.435899999999997</v>
+      </c>
+      <c r="N20">
+        <v>27.044029999999999</v>
+      </c>
+      <c r="O20">
+        <v>79.069770000000005</v>
+      </c>
+      <c r="P20">
+        <v>43.589739999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.1</v>
+      </c>
+      <c r="B21">
+        <v>33.962260000000001</v>
+      </c>
+      <c r="C21">
+        <v>74.074070000000006</v>
+      </c>
+      <c r="D21">
+        <v>51.282049999999998</v>
+      </c>
+      <c r="F21">
+        <v>30.817609999999998</v>
+      </c>
+      <c r="G21">
+        <v>79.591840000000005</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>33.962260000000001</v>
+      </c>
+      <c r="K21">
+        <v>74.074070000000006</v>
+      </c>
+      <c r="L21">
+        <v>51.282049999999998</v>
+      </c>
+      <c r="N21">
+        <v>28.930820000000001</v>
+      </c>
+      <c r="O21">
+        <v>78.260869999999997</v>
+      </c>
+      <c r="P21">
+        <v>46.153849999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.15</v>
+      </c>
+      <c r="B22">
+        <v>38.364780000000003</v>
+      </c>
+      <c r="C22">
+        <v>70.491799999999998</v>
+      </c>
+      <c r="D22">
+        <v>55.128210000000003</v>
+      </c>
+      <c r="F22">
+        <v>33.962260000000001</v>
+      </c>
+      <c r="G22">
+        <v>77.777780000000007</v>
+      </c>
+      <c r="H22">
+        <v>53.846150000000002</v>
+      </c>
+      <c r="J22">
+        <v>36.477989999999998</v>
+      </c>
+      <c r="K22">
+        <v>70.689660000000003</v>
+      </c>
+      <c r="L22">
+        <v>52.564100000000003</v>
+      </c>
+      <c r="N22">
+        <v>32.075470000000003</v>
+      </c>
+      <c r="O22">
+        <v>76.470590000000001</v>
+      </c>
+      <c r="P22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0.2</v>
+      </c>
+      <c r="B23">
+        <v>39.622639999999997</v>
+      </c>
+      <c r="C23">
+        <v>69.841269999999994</v>
+      </c>
+      <c r="D23">
+        <v>56.410260000000001</v>
+      </c>
+      <c r="F23">
+        <v>37.106920000000002</v>
+      </c>
+      <c r="G23">
+        <v>76.271190000000004</v>
+      </c>
+      <c r="H23">
+        <v>57.692309999999999</v>
+      </c>
+      <c r="J23">
+        <v>38.364780000000003</v>
+      </c>
+      <c r="K23">
+        <v>70.491799999999998</v>
+      </c>
+      <c r="L23">
+        <v>55.128210000000003</v>
+      </c>
+      <c r="N23">
+        <v>32.7044</v>
+      </c>
+      <c r="O23">
+        <v>76.923079999999999</v>
+      </c>
+      <c r="P23">
+        <v>51.282049999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0.25</v>
+      </c>
+      <c r="B24">
+        <v>42.767299999999999</v>
+      </c>
+      <c r="C24">
+        <v>69.117649999999998</v>
+      </c>
+      <c r="D24">
+        <v>60.256410000000002</v>
+      </c>
+      <c r="F24">
+        <v>37.735849999999999</v>
+      </c>
+      <c r="G24">
+        <v>75</v>
+      </c>
+      <c r="H24">
+        <v>57.692309999999999</v>
+      </c>
+      <c r="J24">
+        <v>41.509430000000002</v>
+      </c>
+      <c r="K24">
+        <v>69.696969999999993</v>
+      </c>
+      <c r="L24">
+        <v>58.974359999999997</v>
+      </c>
+      <c r="N24">
+        <v>34.591189999999997</v>
+      </c>
+      <c r="O24">
+        <v>72.727270000000004</v>
+      </c>
+      <c r="P24">
+        <v>51.282049999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.3</v>
+      </c>
+      <c r="B25">
+        <v>45.28302</v>
+      </c>
+      <c r="C25">
+        <v>66.666669999999996</v>
+      </c>
+      <c r="D25">
+        <v>61.538460000000001</v>
+      </c>
+      <c r="F25">
+        <v>40.880499999999998</v>
+      </c>
+      <c r="G25">
+        <v>72.307689999999994</v>
+      </c>
+      <c r="H25">
+        <v>60.256410000000002</v>
+      </c>
+      <c r="J25">
+        <v>43.396230000000003</v>
+      </c>
+      <c r="K25">
+        <v>71.014489999999995</v>
+      </c>
+      <c r="L25">
+        <v>62.820509999999999</v>
+      </c>
+      <c r="N25">
+        <v>37.106920000000002</v>
+      </c>
+      <c r="O25">
+        <v>72.881360000000001</v>
+      </c>
+      <c r="P25">
+        <v>55.128210000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.35</v>
+      </c>
+      <c r="B26">
+        <v>46.540880000000001</v>
+      </c>
+      <c r="C26">
+        <v>67.567570000000003</v>
+      </c>
+      <c r="D26">
+        <v>64.102559999999997</v>
+      </c>
+      <c r="F26">
+        <v>42.138359999999999</v>
+      </c>
+      <c r="G26">
+        <v>73.134330000000006</v>
+      </c>
+      <c r="H26">
+        <v>62.820509999999999</v>
+      </c>
+      <c r="J26">
+        <v>44.654089999999997</v>
+      </c>
+      <c r="K26">
+        <v>69.014080000000007</v>
+      </c>
+      <c r="L26">
+        <v>62.820509999999999</v>
+      </c>
+      <c r="N26">
+        <v>39.622639999999997</v>
+      </c>
+      <c r="O26">
+        <v>71.428569999999993</v>
+      </c>
+      <c r="P26">
+        <v>57.692309999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.4</v>
+      </c>
+      <c r="B27">
+        <v>47.798740000000002</v>
+      </c>
+      <c r="C27">
+        <v>67.105260000000001</v>
+      </c>
+      <c r="D27">
+        <v>65.384619999999998</v>
+      </c>
+      <c r="F27">
+        <v>43.396230000000003</v>
+      </c>
+      <c r="G27">
+        <v>73.913039999999995</v>
+      </c>
+      <c r="H27">
+        <v>65.384619999999998</v>
+      </c>
+      <c r="J27">
+        <v>45.28302</v>
+      </c>
+      <c r="K27">
+        <v>69.44444</v>
+      </c>
+      <c r="L27">
+        <v>64.102559999999997</v>
+      </c>
+      <c r="N27">
+        <v>42.767299999999999</v>
+      </c>
+      <c r="O27">
+        <v>66.176469999999995</v>
+      </c>
+      <c r="P27">
+        <v>57.692309999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.45</v>
+      </c>
+      <c r="B28">
+        <v>49.056600000000003</v>
+      </c>
+      <c r="C28">
+        <v>67.948719999999994</v>
+      </c>
+      <c r="D28">
+        <v>67.948719999999994</v>
+      </c>
+      <c r="F28">
+        <v>44.654089999999997</v>
+      </c>
+      <c r="G28">
+        <v>73.239440000000002</v>
+      </c>
+      <c r="H28">
+        <v>66.666669999999996</v>
+      </c>
+      <c r="J28">
+        <v>46.540880000000001</v>
+      </c>
+      <c r="K28">
+        <v>67.567570000000003</v>
+      </c>
+      <c r="L28">
+        <v>64.102559999999997</v>
+      </c>
+      <c r="N28">
+        <v>44.654089999999997</v>
+      </c>
+      <c r="O28">
+        <v>67.605630000000005</v>
+      </c>
+      <c r="P28">
+        <v>61.538460000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.5</v>
+      </c>
+      <c r="B29">
+        <v>49.056600000000003</v>
+      </c>
+      <c r="C29">
+        <v>67.948719999999994</v>
+      </c>
+      <c r="D29">
+        <v>67.948719999999994</v>
+      </c>
+      <c r="F29">
+        <v>46.540880000000001</v>
+      </c>
+      <c r="G29">
+        <v>70.270269999999996</v>
+      </c>
+      <c r="H29">
+        <v>66.666669999999996</v>
+      </c>
+      <c r="J29">
+        <v>49.056600000000003</v>
+      </c>
+      <c r="K29">
+        <v>66.666669999999996</v>
+      </c>
+      <c r="L29">
+        <v>66.666669999999996</v>
+      </c>
+      <c r="N29">
+        <v>47.169809999999998</v>
+      </c>
+      <c r="O29">
+        <v>65.333330000000004</v>
+      </c>
+      <c r="P29">
+        <v>62.820509999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+      <c r="C33" t="s">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
+      <c r="D33" t="s">
         <v>3</v>
       </c>
-      <c r="P2" t="s">
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.01</v>
+      </c>
+      <c r="B34">
+        <v>28.653849999999998</v>
+      </c>
+      <c r="C34">
+        <v>84.563760000000002</v>
+      </c>
+      <c r="D34">
+        <v>55.752209999999998</v>
+      </c>
+      <c r="F34">
+        <v>18.942309999999999</v>
+      </c>
+      <c r="G34">
+        <v>89.340100000000007</v>
+      </c>
+      <c r="H34">
+        <v>38.938049999999997</v>
+      </c>
+      <c r="J34">
+        <v>23.75</v>
+      </c>
+      <c r="K34">
+        <v>84.615380000000002</v>
+      </c>
+      <c r="L34">
+        <v>46.238939999999999</v>
+      </c>
+      <c r="N34">
+        <v>26.73077</v>
+      </c>
+      <c r="O34">
+        <v>84.53237</v>
+      </c>
+      <c r="P34">
+        <v>51.991149999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.05</v>
+      </c>
+      <c r="B35">
+        <v>32.5</v>
+      </c>
+      <c r="C35">
+        <v>83.727810000000005</v>
+      </c>
+      <c r="D35">
+        <v>62.610619999999997</v>
+      </c>
+      <c r="F35">
+        <v>24.711539999999999</v>
+      </c>
+      <c r="G35">
+        <v>84.4358</v>
+      </c>
+      <c r="H35">
+        <v>48.008850000000002</v>
+      </c>
+      <c r="J35">
+        <v>28.653849999999998</v>
+      </c>
+      <c r="K35">
+        <v>81.543620000000004</v>
+      </c>
+      <c r="L35">
+        <v>53.761060000000001</v>
+      </c>
+      <c r="N35">
+        <v>31.346150000000002</v>
+      </c>
+      <c r="O35">
+        <v>82.208590000000001</v>
+      </c>
+      <c r="P35">
+        <v>59.29204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.1</v>
+      </c>
+      <c r="B36">
+        <v>34.23077</v>
+      </c>
+      <c r="C36">
+        <v>82.022469999999998</v>
+      </c>
+      <c r="D36">
+        <v>64.601770000000002</v>
+      </c>
+      <c r="F36">
+        <v>28.75</v>
+      </c>
+      <c r="G36">
+        <v>82.608699999999999</v>
+      </c>
+      <c r="H36">
+        <v>54.64602</v>
+      </c>
+      <c r="J36">
+        <v>31.442309999999999</v>
+      </c>
+      <c r="K36">
+        <v>81.345569999999995</v>
+      </c>
+      <c r="L36">
+        <v>58.849559999999997</v>
+      </c>
+      <c r="N36">
+        <v>32.788460000000001</v>
+      </c>
+      <c r="O36">
+        <v>80.938419999999994</v>
+      </c>
+      <c r="P36">
+        <v>61.061950000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.15</v>
+      </c>
+      <c r="B37">
+        <v>35.576920000000001</v>
+      </c>
+      <c r="C37">
+        <v>80.810810000000004</v>
+      </c>
+      <c r="D37">
+        <v>66.150440000000003</v>
+      </c>
+      <c r="F37">
+        <v>30.76923</v>
+      </c>
+      <c r="G37">
+        <v>81.5625</v>
+      </c>
+      <c r="H37">
+        <v>57.743360000000003</v>
+      </c>
+      <c r="J37">
+        <v>32.884619999999998</v>
+      </c>
+      <c r="K37">
+        <v>81.578950000000006</v>
+      </c>
+      <c r="L37">
+        <v>61.725659999999998</v>
+      </c>
+      <c r="N37">
+        <v>34.615380000000002</v>
+      </c>
+      <c r="O37">
+        <v>78.888890000000004</v>
+      </c>
+      <c r="P37">
+        <v>62.831859999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.2</v>
+      </c>
+      <c r="B38">
+        <v>36.057690000000001</v>
+      </c>
+      <c r="C38">
+        <v>80.533330000000007</v>
+      </c>
+      <c r="D38">
+        <v>66.814160000000001</v>
+      </c>
+      <c r="F38">
+        <v>32.98077</v>
+      </c>
+      <c r="G38">
+        <v>80.174930000000003</v>
+      </c>
+      <c r="H38">
+        <v>60.840710000000001</v>
+      </c>
+      <c r="J38">
+        <v>34.134619999999998</v>
+      </c>
+      <c r="K38">
+        <v>79.718310000000002</v>
+      </c>
+      <c r="L38">
+        <v>62.610619999999997</v>
+      </c>
+      <c r="N38">
+        <v>35.865380000000002</v>
+      </c>
+      <c r="O38">
+        <v>78.016090000000005</v>
+      </c>
+      <c r="P38">
+        <v>64.380529999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.25</v>
+      </c>
+      <c r="B39">
+        <v>36.634619999999998</v>
+      </c>
+      <c r="C39">
+        <v>80.052490000000006</v>
+      </c>
+      <c r="D39">
+        <v>67.477879999999999</v>
+      </c>
+      <c r="F39">
+        <v>34.23077</v>
+      </c>
+      <c r="G39">
+        <v>79.213480000000004</v>
+      </c>
+      <c r="H39">
+        <v>62.389380000000003</v>
+      </c>
+      <c r="J39">
+        <v>35.384619999999998</v>
+      </c>
+      <c r="K39">
+        <v>79.347830000000002</v>
+      </c>
+      <c r="L39">
+        <v>64.601770000000002</v>
+      </c>
+      <c r="N39">
+        <v>36.442309999999999</v>
+      </c>
+      <c r="O39">
+        <v>77.572559999999996</v>
+      </c>
+      <c r="P39">
+        <v>65.044250000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.3</v>
+      </c>
+      <c r="B40">
+        <v>37.692309999999999</v>
+      </c>
+      <c r="C40">
+        <v>79.846940000000004</v>
+      </c>
+      <c r="D40">
+        <v>69.247789999999995</v>
+      </c>
+      <c r="F40">
+        <v>35.48077</v>
+      </c>
+      <c r="G40">
+        <v>78.590789999999998</v>
+      </c>
+      <c r="H40">
+        <v>64.159289999999999</v>
+      </c>
+      <c r="J40">
+        <v>36.634619999999998</v>
+      </c>
+      <c r="K40">
+        <v>79.002619999999993</v>
+      </c>
+      <c r="L40">
+        <v>66.592920000000007</v>
+      </c>
+      <c r="N40">
+        <v>37.596150000000002</v>
+      </c>
+      <c r="O40">
+        <v>76.982100000000003</v>
+      </c>
+      <c r="P40">
+        <v>66.592920000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.35</v>
+      </c>
+      <c r="B41">
+        <v>38.365380000000002</v>
+      </c>
+      <c r="C41">
+        <v>78.947370000000006</v>
+      </c>
+      <c r="D41">
+        <v>69.690269999999998</v>
+      </c>
+      <c r="F41">
+        <v>37.307690000000001</v>
+      </c>
+      <c r="G41">
+        <v>76.804119999999998</v>
+      </c>
+      <c r="H41">
+        <v>65.929199999999994</v>
+      </c>
+      <c r="J41">
+        <v>37.692309999999999</v>
+      </c>
+      <c r="K41">
+        <v>77.551019999999994</v>
+      </c>
+      <c r="L41">
+        <v>67.256640000000004</v>
+      </c>
+      <c r="N41">
+        <v>38.461539999999999</v>
+      </c>
+      <c r="O41">
+        <v>76</v>
+      </c>
+      <c r="P41">
+        <v>67.256640000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>39.134619999999998</v>
+      </c>
+      <c r="C42">
+        <v>78.624080000000006</v>
+      </c>
+      <c r="D42">
+        <v>70.796459999999996</v>
+      </c>
+      <c r="F42">
+        <v>39.038460000000001</v>
+      </c>
+      <c r="G42">
+        <v>74.876850000000005</v>
+      </c>
+      <c r="H42">
+        <v>67.256640000000004</v>
+      </c>
+      <c r="J42">
+        <v>38.461539999999999</v>
+      </c>
+      <c r="K42">
+        <v>77.5</v>
+      </c>
+      <c r="L42">
+        <v>68.584069999999997</v>
+      </c>
+      <c r="N42">
+        <v>39.423079999999999</v>
+      </c>
+      <c r="O42">
+        <v>75.365849999999995</v>
+      </c>
+      <c r="P42">
+        <v>68.362830000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.45</v>
+      </c>
+      <c r="B43">
+        <v>39.51923</v>
+      </c>
+      <c r="C43">
+        <v>78.832120000000003</v>
+      </c>
+      <c r="D43">
+        <v>71.681420000000003</v>
+      </c>
+      <c r="F43">
+        <v>40.48077</v>
+      </c>
+      <c r="G43">
+        <v>74.109260000000006</v>
+      </c>
+      <c r="H43">
+        <v>69.02655</v>
+      </c>
+      <c r="J43">
+        <v>39.038460000000001</v>
+      </c>
+      <c r="K43">
+        <v>76.847290000000001</v>
+      </c>
+      <c r="L43">
+        <v>69.02655</v>
+      </c>
+      <c r="N43">
+        <v>40.384619999999998</v>
+      </c>
+      <c r="O43">
+        <v>74.285709999999995</v>
+      </c>
+      <c r="P43">
+        <v>69.02655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.5</v>
+      </c>
+      <c r="B44">
+        <v>39.903849999999998</v>
+      </c>
+      <c r="C44">
+        <v>78.313249999999996</v>
+      </c>
+      <c r="D44">
+        <v>71.902649999999994</v>
+      </c>
+      <c r="F44">
+        <v>42.211539999999999</v>
+      </c>
+      <c r="G44">
+        <v>73.120729999999995</v>
+      </c>
+      <c r="H44">
+        <v>71.017700000000005</v>
+      </c>
+      <c r="J44">
+        <v>39.51923</v>
+      </c>
+      <c r="K44">
+        <v>76.399029999999996</v>
+      </c>
+      <c r="L44">
+        <v>69.469030000000004</v>
+      </c>
+      <c r="N44">
+        <v>40.865380000000002</v>
+      </c>
+      <c r="O44">
+        <v>73.882350000000002</v>
+      </c>
+      <c r="P44">
+        <v>69.469030000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
+      <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S2" t="s">
+      <c r="D48" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.01</v>
+      </c>
+      <c r="B49">
+        <v>7.9096000000000002</v>
+      </c>
+      <c r="C49">
+        <v>53.571429999999999</v>
+      </c>
+      <c r="D49">
+        <v>16.483519999999999</v>
+      </c>
+      <c r="F49">
+        <v>3.1073400000000002</v>
+      </c>
+      <c r="G49">
+        <v>27.272729999999999</v>
+      </c>
+      <c r="H49">
+        <v>3.2967</v>
+      </c>
+      <c r="J49">
+        <v>5.3672300000000002</v>
+      </c>
+      <c r="K49">
+        <v>47.36842</v>
+      </c>
+      <c r="L49">
+        <v>9.89011</v>
+      </c>
+      <c r="N49">
+        <v>9.8870100000000001</v>
+      </c>
+      <c r="O49">
+        <v>57.142859999999999</v>
+      </c>
+      <c r="P49">
+        <v>21.978020000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.05</v>
+      </c>
+      <c r="B50">
+        <v>9.3220299999999998</v>
+      </c>
+      <c r="C50">
+        <v>57.575760000000002</v>
+      </c>
+      <c r="D50">
+        <v>20.87912</v>
+      </c>
+      <c r="F50">
+        <v>8.1920900000000003</v>
+      </c>
+      <c r="G50">
+        <v>41.379309999999997</v>
+      </c>
+      <c r="H50">
+        <v>13.186809999999999</v>
+      </c>
+      <c r="J50">
+        <v>8.1920900000000003</v>
+      </c>
+      <c r="K50">
+        <v>48.275860000000002</v>
+      </c>
+      <c r="L50">
+        <v>15.38462</v>
+      </c>
+      <c r="N50">
+        <v>11.58192</v>
+      </c>
+      <c r="O50">
+        <v>51.21951</v>
+      </c>
+      <c r="P50">
+        <v>23.076920000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.1</v>
+      </c>
+      <c r="B51">
+        <v>9.8870100000000001</v>
+      </c>
+      <c r="C51">
+        <v>54.285710000000002</v>
+      </c>
+      <c r="D51">
+        <v>20.87912</v>
+      </c>
+      <c r="F51">
+        <v>9.8870100000000001</v>
+      </c>
+      <c r="G51">
+        <v>48.571429999999999</v>
+      </c>
+      <c r="H51">
+        <v>18.681319999999999</v>
+      </c>
+      <c r="J51">
+        <v>9.8870100000000001</v>
+      </c>
+      <c r="K51">
+        <v>48.571429999999999</v>
+      </c>
+      <c r="L51">
+        <v>18.681319999999999</v>
+      </c>
+      <c r="N51">
+        <v>13.27684</v>
+      </c>
+      <c r="O51">
+        <v>48.936169999999997</v>
+      </c>
+      <c r="P51">
+        <v>25.274730000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.15</v>
+      </c>
+      <c r="B52">
+        <v>12.146890000000001</v>
+      </c>
+      <c r="C52">
+        <v>48.837209999999999</v>
+      </c>
+      <c r="D52">
+        <v>23.076920000000001</v>
+      </c>
+      <c r="F52">
+        <v>11.01695</v>
+      </c>
+      <c r="G52">
+        <v>46.153849999999998</v>
+      </c>
+      <c r="H52">
+        <v>19.78022</v>
+      </c>
+      <c r="J52">
+        <v>10.73446</v>
+      </c>
+      <c r="K52">
+        <v>44.736840000000001</v>
+      </c>
+      <c r="L52">
+        <v>18.681319999999999</v>
+      </c>
+      <c r="N52">
+        <v>14.97175</v>
+      </c>
+      <c r="O52">
+        <v>52.830190000000002</v>
+      </c>
+      <c r="P52">
+        <v>30.76923</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0.2</v>
+      </c>
+      <c r="B53">
+        <v>13.27684</v>
+      </c>
+      <c r="C53">
+        <v>48.936169999999997</v>
+      </c>
+      <c r="D53">
+        <v>25.274730000000002</v>
+      </c>
+      <c r="F53">
+        <v>11.864409999999999</v>
+      </c>
+      <c r="G53">
+        <v>45.238100000000003</v>
+      </c>
+      <c r="H53">
+        <v>20.87912</v>
+      </c>
+      <c r="J53">
+        <v>11.864409999999999</v>
+      </c>
+      <c r="K53">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="L53">
+        <v>19.78022</v>
+      </c>
+      <c r="N53">
+        <v>15.81921</v>
+      </c>
+      <c r="O53">
+        <v>55.357140000000001</v>
+      </c>
+      <c r="P53">
+        <v>34.065930000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.25</v>
+      </c>
+      <c r="B54">
+        <v>13.841810000000001</v>
+      </c>
+      <c r="C54">
+        <v>48.979590000000002</v>
+      </c>
+      <c r="D54">
+        <v>26.373629999999999</v>
+      </c>
+      <c r="F54">
+        <v>12.71186</v>
+      </c>
+      <c r="G54">
+        <v>44.44444</v>
+      </c>
+      <c r="H54">
+        <v>21.978020000000001</v>
+      </c>
+      <c r="J54">
+        <v>12.994350000000001</v>
+      </c>
+      <c r="K54">
+        <v>43.478259999999999</v>
+      </c>
+      <c r="L54">
+        <v>21.978020000000001</v>
+      </c>
+      <c r="N54">
+        <v>16.384180000000001</v>
+      </c>
+      <c r="O54">
+        <v>53.448279999999997</v>
+      </c>
+      <c r="P54">
+        <v>34.065930000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0.3</v>
+      </c>
+      <c r="B55">
+        <v>13.841810000000001</v>
+      </c>
+      <c r="C55">
+        <v>48.979590000000002</v>
+      </c>
+      <c r="D55">
+        <v>26.373629999999999</v>
+      </c>
+      <c r="F55">
+        <v>13.841810000000001</v>
+      </c>
+      <c r="G55">
+        <v>42.857140000000001</v>
+      </c>
+      <c r="H55">
+        <v>23.076920000000001</v>
+      </c>
+      <c r="J55">
+        <v>14.406779999999999</v>
+      </c>
+      <c r="K55">
+        <v>41.176470000000002</v>
+      </c>
+      <c r="L55">
+        <v>23.076920000000001</v>
+      </c>
+      <c r="N55">
+        <v>16.66667</v>
+      </c>
+      <c r="O55">
+        <v>52.542369999999998</v>
+      </c>
+      <c r="P55">
+        <v>34.065930000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.35</v>
+      </c>
+      <c r="B56">
+        <v>13.841810000000001</v>
+      </c>
+      <c r="C56">
+        <v>48.979590000000002</v>
+      </c>
+      <c r="D56">
+        <v>26.373629999999999</v>
+      </c>
+      <c r="F56">
+        <v>14.97175</v>
+      </c>
+      <c r="G56">
+        <v>39.622639999999997</v>
+      </c>
+      <c r="H56">
+        <v>23.076920000000001</v>
+      </c>
+      <c r="J56">
+        <v>14.406779999999999</v>
+      </c>
+      <c r="K56">
+        <v>41.176470000000002</v>
+      </c>
+      <c r="L56">
+        <v>23.076920000000001</v>
+      </c>
+      <c r="N56">
+        <v>17.796610000000001</v>
+      </c>
+      <c r="O56">
+        <v>50.79365</v>
+      </c>
+      <c r="P56">
+        <v>35.164839999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0.4</v>
+      </c>
+      <c r="B57">
+        <v>14.97175</v>
+      </c>
+      <c r="C57">
+        <v>49.056600000000003</v>
+      </c>
+      <c r="D57">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="F57">
+        <v>15.81921</v>
+      </c>
+      <c r="G57">
+        <v>41.071429999999999</v>
+      </c>
+      <c r="H57">
+        <v>25.274730000000002</v>
+      </c>
+      <c r="J57">
+        <v>14.68927</v>
+      </c>
+      <c r="K57">
+        <v>40.384619999999998</v>
+      </c>
+      <c r="L57">
+        <v>23.076920000000001</v>
+      </c>
+      <c r="N57">
+        <v>19.209040000000002</v>
+      </c>
+      <c r="O57">
+        <v>51.470590000000001</v>
+      </c>
+      <c r="P57">
+        <v>38.461539999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0.45</v>
+      </c>
+      <c r="B58">
+        <v>15.536720000000001</v>
+      </c>
+      <c r="C58">
+        <v>49.090910000000001</v>
+      </c>
+      <c r="D58">
+        <v>29.67033</v>
+      </c>
+      <c r="F58">
+        <v>15.81921</v>
+      </c>
+      <c r="G58">
+        <v>41.071429999999999</v>
+      </c>
+      <c r="H58">
+        <v>25.274730000000002</v>
+      </c>
+      <c r="J58">
+        <v>15.536720000000001</v>
+      </c>
+      <c r="K58">
+        <v>40</v>
+      </c>
+      <c r="L58">
+        <v>24.175820000000002</v>
+      </c>
+      <c r="N58">
+        <v>20.0565</v>
+      </c>
+      <c r="O58">
+        <v>50.704230000000003</v>
+      </c>
+      <c r="P58">
+        <v>39.56044</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0.5</v>
+      </c>
+      <c r="B59">
+        <v>16.66667</v>
+      </c>
+      <c r="C59">
+        <v>50.847459999999998</v>
+      </c>
+      <c r="D59">
+        <v>32.967030000000001</v>
+      </c>
+      <c r="F59">
+        <v>16.949149999999999</v>
+      </c>
+      <c r="G59">
+        <v>43.333329999999997</v>
+      </c>
+      <c r="H59">
+        <v>28.571429999999999</v>
+      </c>
+      <c r="J59">
+        <v>15.81921</v>
+      </c>
+      <c r="K59">
+        <v>39.285710000000002</v>
+      </c>
+      <c r="L59">
+        <v>24.175820000000002</v>
+      </c>
+      <c r="N59">
+        <v>20.338979999999999</v>
+      </c>
+      <c r="O59">
+        <v>50</v>
+      </c>
+      <c r="P59">
+        <v>39.56044</v>
       </c>
     </row>
   </sheetData>
@@ -1721,76 +3733,2057 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14.05152</v>
+      </c>
+      <c r="C3" s="1">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1">
+        <v>34.53237</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.02576</v>
+      </c>
+      <c r="G3" s="1">
+        <v>83.333330000000004</v>
+      </c>
+      <c r="H3" s="1">
+        <v>17.985610000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>12.177989999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>84.615380000000002</v>
+      </c>
+      <c r="L3" s="1">
+        <v>31.654679999999999</v>
+      </c>
+      <c r="N3" s="1">
+        <v>15.456670000000001</v>
+      </c>
+      <c r="O3" s="1">
+        <v>74.242419999999996</v>
+      </c>
+      <c r="P3" s="1">
+        <v>35.251800000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17.798590000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>72.36842</v>
+      </c>
+      <c r="D4" s="1">
+        <v>39.568350000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>11.00703</v>
+      </c>
+      <c r="G4" s="1">
+        <v>82.978719999999996</v>
+      </c>
+      <c r="H4" s="1">
+        <v>28.057549999999999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>15.92506</v>
+      </c>
+      <c r="K4" s="1">
+        <v>77.941180000000003</v>
+      </c>
+      <c r="L4" s="1">
+        <v>38.1295</v>
+      </c>
+      <c r="N4" s="1">
+        <v>19.437940000000001</v>
+      </c>
+      <c r="O4" s="1">
+        <v>69.879519999999999</v>
+      </c>
+      <c r="P4" s="1">
+        <v>41.726619999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20.140519999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>69.767439999999993</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43.165469999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>14.28571</v>
+      </c>
+      <c r="G5" s="1">
+        <v>73.770489999999995</v>
+      </c>
+      <c r="H5" s="1">
+        <v>32.374099999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <v>17.564399999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>72</v>
+      </c>
+      <c r="L5" s="1">
+        <v>38.84892</v>
+      </c>
+      <c r="N5" s="1">
+        <v>21.779859999999999</v>
+      </c>
+      <c r="O5" s="1">
+        <v>69.892470000000003</v>
+      </c>
+      <c r="P5" s="1">
+        <v>46.762590000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20.37471</v>
+      </c>
+      <c r="C6" s="1">
+        <v>70.114940000000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43.884889999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>17.564399999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>70.666669999999996</v>
+      </c>
+      <c r="H6" s="1">
+        <v>38.1295</v>
+      </c>
+      <c r="J6" s="1">
+        <v>18.969560000000001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>70.370369999999994</v>
+      </c>
+      <c r="L6" s="1">
+        <v>41.007190000000001</v>
+      </c>
+      <c r="N6" s="1">
+        <v>23.185009999999998</v>
+      </c>
+      <c r="O6" s="1">
+        <v>66.666669999999996</v>
+      </c>
+      <c r="P6" s="1">
+        <v>47.482010000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>21.31148</v>
+      </c>
+      <c r="C7" s="1">
+        <v>68.131870000000006</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44.604320000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20.37471</v>
+      </c>
+      <c r="G7" s="1">
+        <v>70.114940000000004</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43.884889999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>19.906320000000001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>69.411760000000001</v>
+      </c>
+      <c r="L7" s="1">
+        <v>42.446040000000004</v>
+      </c>
+      <c r="N7" s="1">
+        <v>24.121780000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <v>66.019419999999997</v>
+      </c>
+      <c r="P7" s="1">
+        <v>48.920859999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22.48244</v>
+      </c>
+      <c r="C8" s="1">
+        <v>66.666669999999996</v>
+      </c>
+      <c r="D8" s="1">
+        <v>46.043170000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>22.716629999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>65.979380000000006</v>
+      </c>
+      <c r="H8" s="1">
+        <v>46.043170000000003</v>
+      </c>
+      <c r="J8" s="1">
+        <v>20.84309</v>
+      </c>
+      <c r="K8" s="1">
+        <v>66.29213</v>
+      </c>
+      <c r="L8" s="1">
+        <v>42.446040000000004</v>
+      </c>
+      <c r="N8" s="1">
+        <v>25.761119999999998</v>
+      </c>
+      <c r="O8" s="1">
+        <v>64.545450000000002</v>
+      </c>
+      <c r="P8" s="1">
+        <v>51.079140000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>24.121780000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>65.048540000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>48.201439999999998</v>
+      </c>
+      <c r="F9" s="1">
+        <v>23.887589999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>65.686269999999993</v>
+      </c>
+      <c r="H9" s="1">
+        <v>48.201439999999998</v>
+      </c>
+      <c r="J9" s="1">
+        <v>21.779859999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>64.516130000000004</v>
+      </c>
+      <c r="L9" s="1">
+        <v>43.165469999999999</v>
+      </c>
+      <c r="N9" s="1">
+        <v>25.99532</v>
+      </c>
+      <c r="O9" s="1">
+        <v>63.96396</v>
+      </c>
+      <c r="P9" s="1">
+        <v>51.079140000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B10" s="1">
+        <v>24.121780000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>65.048540000000003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>48.201439999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>24.824359999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>64.150940000000006</v>
+      </c>
+      <c r="H10" s="1">
+        <v>48.920859999999998</v>
+      </c>
+      <c r="J10" s="1">
+        <v>22.48244</v>
+      </c>
+      <c r="K10" s="1">
+        <v>64.583330000000004</v>
+      </c>
+      <c r="L10" s="1">
+        <v>44.604320000000001</v>
+      </c>
+      <c r="N10" s="1">
+        <v>26.697890000000001</v>
+      </c>
+      <c r="O10" s="1">
+        <v>62.280700000000003</v>
+      </c>
+      <c r="P10" s="1">
+        <v>51.079140000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>24.590160000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>63.809519999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>48.201439999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>25.761119999999998</v>
+      </c>
+      <c r="G11" s="1">
+        <v>63.636360000000003</v>
+      </c>
+      <c r="H11" s="1">
+        <v>50.35971</v>
+      </c>
+      <c r="J11" s="1">
+        <v>24.121780000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>63.1068</v>
+      </c>
+      <c r="L11" s="1">
+        <v>46.762590000000003</v>
+      </c>
+      <c r="N11" s="1">
+        <v>28.10304</v>
+      </c>
+      <c r="O11" s="1">
+        <v>60</v>
+      </c>
+      <c r="P11" s="1">
+        <v>51.798560000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B12" s="1">
+        <v>25.05855</v>
+      </c>
+      <c r="C12" s="1">
+        <v>62.616819999999997</v>
+      </c>
+      <c r="D12" s="1">
+        <v>48.201439999999998</v>
+      </c>
+      <c r="F12" s="1">
+        <v>27.400469999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>61.538460000000001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>51.798560000000002</v>
+      </c>
+      <c r="J12" s="1">
+        <v>24.824359999999999</v>
+      </c>
+      <c r="K12" s="1">
+        <v>61.320749999999997</v>
+      </c>
+      <c r="L12" s="1">
+        <v>46.762590000000003</v>
+      </c>
+      <c r="N12" s="1">
+        <v>28.805620000000001</v>
+      </c>
+      <c r="O12" s="1">
+        <v>59.349589999999999</v>
+      </c>
+      <c r="P12" s="1">
+        <v>52.517989999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>25.292739999999998</v>
+      </c>
+      <c r="C13" s="1">
+        <v>62.037039999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>48.201439999999998</v>
+      </c>
+      <c r="F13" s="1">
+        <v>29.274000000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>61.6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>55.395679999999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>25.99532</v>
+      </c>
+      <c r="K13" s="1">
+        <v>59.45946</v>
+      </c>
+      <c r="L13" s="1">
+        <v>47.482010000000002</v>
+      </c>
+      <c r="N13" s="1">
+        <v>29.508199999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <v>60.317459999999997</v>
+      </c>
+      <c r="P13" s="1">
+        <v>54.676259999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B19" s="1">
+        <v>37.106920000000002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>77.966099999999997</v>
+      </c>
+      <c r="D19" s="1">
+        <v>56.790120000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>27.044029999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>76.744190000000003</v>
+      </c>
+      <c r="H19" s="1">
+        <v>40.740740000000002</v>
+      </c>
+      <c r="J19" s="1">
+        <v>33.962260000000001</v>
+      </c>
+      <c r="K19" s="1">
+        <v>79.629630000000006</v>
+      </c>
+      <c r="L19" s="1">
+        <v>53.086419999999997</v>
+      </c>
+      <c r="N19" s="1">
+        <v>29.559750000000001</v>
+      </c>
+      <c r="O19" s="1">
+        <v>80.851060000000004</v>
+      </c>
+      <c r="P19" s="1">
+        <v>46.913580000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="B20" s="1">
+        <v>42.138359999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>73.134330000000006</v>
+      </c>
+      <c r="D20" s="1">
+        <v>60.493830000000003</v>
+      </c>
+      <c r="F20" s="1">
+        <v>35.849060000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>75.438599999999994</v>
+      </c>
+      <c r="H20" s="1">
+        <v>53.086419999999997</v>
+      </c>
+      <c r="J20" s="1">
+        <v>38.99371</v>
+      </c>
+      <c r="K20" s="1">
+        <v>75.806449999999998</v>
+      </c>
+      <c r="L20" s="1">
+        <v>58.02469</v>
+      </c>
+      <c r="N20" s="1">
+        <v>42.138359999999999</v>
+      </c>
+      <c r="O20" s="1">
+        <v>73.134330000000006</v>
+      </c>
+      <c r="P20" s="1">
+        <v>60.493830000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43.396230000000003</v>
+      </c>
+      <c r="C21" s="1">
+        <v>73.913039999999995</v>
+      </c>
+      <c r="D21" s="1">
+        <v>62.962960000000002</v>
+      </c>
+      <c r="F21" s="1">
+        <v>38.99371</v>
+      </c>
+      <c r="G21" s="1">
+        <v>75.806449999999998</v>
+      </c>
+      <c r="H21" s="1">
+        <v>58.02469</v>
+      </c>
+      <c r="J21" s="1">
+        <v>40.880499999999998</v>
+      </c>
+      <c r="K21" s="1">
+        <v>75.384619999999998</v>
+      </c>
+      <c r="L21" s="1">
+        <v>60.493830000000003</v>
+      </c>
+      <c r="N21" s="1">
+        <v>44.02516</v>
+      </c>
+      <c r="O21" s="1">
+        <v>71.428569999999993</v>
+      </c>
+      <c r="P21" s="1">
+        <v>61.728400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44.654089999999997</v>
+      </c>
+      <c r="C22" s="1">
+        <v>71.83099</v>
+      </c>
+      <c r="D22" s="1">
+        <v>62.962960000000002</v>
+      </c>
+      <c r="F22" s="1">
+        <v>42.767299999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>72.058819999999997</v>
+      </c>
+      <c r="H22" s="1">
+        <v>60.493830000000003</v>
+      </c>
+      <c r="J22" s="1">
+        <v>45.28302</v>
+      </c>
+      <c r="K22" s="1">
+        <v>70.833330000000004</v>
+      </c>
+      <c r="L22" s="1">
+        <v>62.962960000000002</v>
+      </c>
+      <c r="N22" s="1">
+        <v>45.911949999999997</v>
+      </c>
+      <c r="O22" s="1">
+        <v>71.232879999999994</v>
+      </c>
+      <c r="P22" s="1">
+        <v>64.19753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>47.169809999999998</v>
+      </c>
+      <c r="C23" s="1">
+        <v>70.666669999999996</v>
+      </c>
+      <c r="D23" s="1">
+        <v>65.432100000000005</v>
+      </c>
+      <c r="F23" s="1">
+        <v>43.396230000000003</v>
+      </c>
+      <c r="G23" s="1">
+        <v>72.463769999999997</v>
+      </c>
+      <c r="H23" s="1">
+        <v>61.728400000000001</v>
+      </c>
+      <c r="J23" s="1">
+        <v>46.540880000000001</v>
+      </c>
+      <c r="K23" s="1">
+        <v>70.270269999999996</v>
+      </c>
+      <c r="L23" s="1">
+        <v>64.19753</v>
+      </c>
+      <c r="N23" s="1">
+        <v>47.798740000000002</v>
+      </c>
+      <c r="O23" s="1">
+        <v>69.736840000000001</v>
+      </c>
+      <c r="P23" s="1">
+        <v>65.432100000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B24" s="1">
+        <v>47.798740000000002</v>
+      </c>
+      <c r="C24" s="1">
+        <v>71.052629999999994</v>
+      </c>
+      <c r="D24" s="1">
+        <v>66.666669999999996</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45.911949999999997</v>
+      </c>
+      <c r="G24" s="1">
+        <v>71.232879999999994</v>
+      </c>
+      <c r="H24" s="1">
+        <v>64.19753</v>
+      </c>
+      <c r="J24" s="1">
+        <v>47.798740000000002</v>
+      </c>
+      <c r="K24" s="1">
+        <v>71.052629999999994</v>
+      </c>
+      <c r="L24" s="1">
+        <v>66.666669999999996</v>
+      </c>
+      <c r="N24" s="1">
+        <v>47.798740000000002</v>
+      </c>
+      <c r="O24" s="1">
+        <v>69.736840000000001</v>
+      </c>
+      <c r="P24" s="1">
+        <v>65.432100000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>49.056600000000003</v>
+      </c>
+      <c r="C25" s="1">
+        <v>70.512820000000005</v>
+      </c>
+      <c r="D25" s="1">
+        <v>67.901229999999998</v>
+      </c>
+      <c r="F25" s="1">
+        <v>47.169809999999998</v>
+      </c>
+      <c r="G25" s="1">
+        <v>70.666669999999996</v>
+      </c>
+      <c r="H25" s="1">
+        <v>65.432100000000005</v>
+      </c>
+      <c r="J25" s="1">
+        <v>47.798740000000002</v>
+      </c>
+      <c r="K25" s="1">
+        <v>71.052629999999994</v>
+      </c>
+      <c r="L25" s="1">
+        <v>66.666669999999996</v>
+      </c>
+      <c r="N25" s="1">
+        <v>49.68553</v>
+      </c>
+      <c r="O25" s="1">
+        <v>68.354429999999994</v>
+      </c>
+      <c r="P25" s="1">
+        <v>66.666669999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B26" s="1">
+        <v>50.31447</v>
+      </c>
+      <c r="C26" s="1">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1">
+        <v>69.135800000000003</v>
+      </c>
+      <c r="F26" s="1">
+        <v>48.427669999999999</v>
+      </c>
+      <c r="G26" s="1">
+        <v>71.428569999999993</v>
+      </c>
+      <c r="H26" s="1">
+        <v>67.901229999999998</v>
+      </c>
+      <c r="J26" s="1">
+        <v>47.798740000000002</v>
+      </c>
+      <c r="K26" s="1">
+        <v>71.052629999999994</v>
+      </c>
+      <c r="L26" s="1">
+        <v>66.666669999999996</v>
+      </c>
+      <c r="N26" s="1">
+        <v>50.31447</v>
+      </c>
+      <c r="O26" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="P26" s="1">
+        <v>66.666669999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B27" s="1">
+        <v>50.31447</v>
+      </c>
+      <c r="C27" s="1">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1">
+        <v>69.135800000000003</v>
+      </c>
+      <c r="F27" s="1">
+        <v>48.427669999999999</v>
+      </c>
+      <c r="G27" s="1">
+        <v>71.428569999999993</v>
+      </c>
+      <c r="H27" s="1">
+        <v>67.901229999999998</v>
+      </c>
+      <c r="J27" s="1">
+        <v>47.798740000000002</v>
+      </c>
+      <c r="K27" s="1">
+        <v>71.052629999999994</v>
+      </c>
+      <c r="L27" s="1">
+        <v>66.666669999999996</v>
+      </c>
+      <c r="N27" s="1">
+        <v>51.572330000000001</v>
+      </c>
+      <c r="O27" s="1">
+        <v>65.853660000000005</v>
+      </c>
+      <c r="P27" s="1">
+        <v>66.666669999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B28" s="1">
+        <v>50.31447</v>
+      </c>
+      <c r="C28" s="1">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1">
+        <v>69.135800000000003</v>
+      </c>
+      <c r="F28" s="1">
+        <v>52.201259999999998</v>
+      </c>
+      <c r="G28" s="1">
+        <v>69.879519999999999</v>
+      </c>
+      <c r="H28" s="1">
+        <v>71.604939999999999</v>
+      </c>
+      <c r="J28" s="1">
+        <v>49.056600000000003</v>
+      </c>
+      <c r="K28" s="1">
+        <v>70.512820000000005</v>
+      </c>
+      <c r="L28" s="1">
+        <v>67.901229999999998</v>
+      </c>
+      <c r="N28" s="1">
+        <v>51.572330000000001</v>
+      </c>
+      <c r="O28" s="1">
+        <v>65.853660000000005</v>
+      </c>
+      <c r="P28" s="1">
+        <v>66.666669999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>50.943399999999997</v>
+      </c>
+      <c r="C29" s="1">
+        <v>69.135800000000003</v>
+      </c>
+      <c r="D29" s="1">
+        <v>69.135800000000003</v>
+      </c>
+      <c r="F29" s="1">
+        <v>53.459119999999999</v>
+      </c>
+      <c r="G29" s="1">
+        <v>69.411760000000001</v>
+      </c>
+      <c r="H29" s="1">
+        <v>72.839510000000004</v>
+      </c>
+      <c r="J29" s="1">
+        <v>50.943399999999997</v>
+      </c>
+      <c r="K29" s="1">
+        <v>67.901229999999998</v>
+      </c>
+      <c r="L29" s="1">
+        <v>67.901229999999998</v>
+      </c>
+      <c r="N29" s="1">
+        <v>52.830190000000002</v>
+      </c>
+      <c r="O29" s="1">
+        <v>65.476190000000003</v>
+      </c>
+      <c r="P29" s="1">
+        <v>67.901229999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B34" s="1">
+        <v>47.211539999999999</v>
+      </c>
+      <c r="C34" s="1">
+        <v>85.132379999999998</v>
+      </c>
+      <c r="D34" s="1">
+        <v>71.088440000000006</v>
+      </c>
+      <c r="F34" s="1">
+        <v>34.615380000000002</v>
+      </c>
+      <c r="G34" s="1">
+        <v>88.888890000000004</v>
+      </c>
+      <c r="H34" s="1">
+        <v>54.421770000000002</v>
+      </c>
+      <c r="J34" s="1">
+        <v>42.692309999999999</v>
+      </c>
+      <c r="K34" s="1">
+        <v>84.909909999999996</v>
+      </c>
+      <c r="L34" s="1">
+        <v>64.115650000000002</v>
+      </c>
+      <c r="N34" s="1">
+        <v>43.076920000000001</v>
+      </c>
+      <c r="O34" s="1">
+        <v>84.151790000000005</v>
+      </c>
+      <c r="P34" s="1">
+        <v>64.115650000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="B35" s="1">
+        <v>50.288460000000001</v>
+      </c>
+      <c r="C35" s="1">
+        <v>83.174000000000007</v>
+      </c>
+      <c r="D35" s="1">
+        <v>73.979590000000002</v>
+      </c>
+      <c r="F35" s="1">
+        <v>41.057690000000001</v>
+      </c>
+      <c r="G35" s="1">
+        <v>86.182670000000002</v>
+      </c>
+      <c r="H35" s="1">
+        <v>62.585030000000003</v>
+      </c>
+      <c r="J35" s="1">
+        <v>48.461539999999999</v>
+      </c>
+      <c r="K35" s="1">
+        <v>82.539680000000004</v>
+      </c>
+      <c r="L35" s="1">
+        <v>70.7483</v>
+      </c>
+      <c r="N35" s="1">
+        <v>48.076920000000001</v>
+      </c>
+      <c r="O35" s="1">
+        <v>82.8</v>
+      </c>
+      <c r="P35" s="1">
+        <v>70.408159999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B36" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>82.051280000000006</v>
+      </c>
+      <c r="D36" s="1">
+        <v>76.190479999999994</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44.423079999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <v>84.63203</v>
+      </c>
+      <c r="H36" s="1">
+        <v>66.496600000000001</v>
+      </c>
+      <c r="J36" s="1">
+        <v>51.057690000000001</v>
+      </c>
+      <c r="K36" s="1">
+        <v>81.920900000000003</v>
+      </c>
+      <c r="L36" s="1">
+        <v>73.979590000000002</v>
+      </c>
+      <c r="N36" s="1">
+        <v>50.192309999999999</v>
+      </c>
+      <c r="O36" s="1">
+        <v>81.417619999999999</v>
+      </c>
+      <c r="P36" s="1">
+        <v>72.278909999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="B37" s="1">
+        <v>54.51923</v>
+      </c>
+      <c r="C37" s="1">
+        <v>81.657849999999996</v>
+      </c>
+      <c r="D37" s="1">
+        <v>78.741500000000002</v>
+      </c>
+      <c r="F37" s="1">
+        <v>47.115380000000002</v>
+      </c>
+      <c r="G37" s="1">
+        <v>83.265309999999999</v>
+      </c>
+      <c r="H37" s="1">
+        <v>69.38776</v>
+      </c>
+      <c r="J37" s="1">
+        <v>53.076920000000001</v>
+      </c>
+      <c r="K37" s="1">
+        <v>81.340580000000003</v>
+      </c>
+      <c r="L37" s="1">
+        <v>76.36054</v>
+      </c>
+      <c r="N37" s="1">
+        <v>51.73077</v>
+      </c>
+      <c r="O37" s="1">
+        <v>80.297399999999996</v>
+      </c>
+      <c r="P37" s="1">
+        <v>73.469390000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>55.192309999999999</v>
+      </c>
+      <c r="C38" s="1">
+        <v>81.358890000000002</v>
+      </c>
+      <c r="D38" s="1">
+        <v>79.421769999999995</v>
+      </c>
+      <c r="F38" s="1">
+        <v>49.423079999999999</v>
+      </c>
+      <c r="G38" s="1">
+        <v>82.101169999999996</v>
+      </c>
+      <c r="H38" s="1">
+        <v>71.768709999999999</v>
+      </c>
+      <c r="J38" s="1">
+        <v>54.134619999999998</v>
+      </c>
+      <c r="K38" s="1">
+        <v>80.994669999999999</v>
+      </c>
+      <c r="L38" s="1">
+        <v>77.551019999999994</v>
+      </c>
+      <c r="N38" s="1">
+        <v>53.557690000000001</v>
+      </c>
+      <c r="O38" s="1">
+        <v>80.071809999999999</v>
+      </c>
+      <c r="P38" s="1">
+        <v>75.850340000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B39" s="1">
+        <v>55.673079999999999</v>
+      </c>
+      <c r="C39" s="1">
+        <v>81.174440000000004</v>
+      </c>
+      <c r="D39" s="1">
+        <v>79.931970000000007</v>
+      </c>
+      <c r="F39" s="1">
+        <v>51.923079999999999</v>
+      </c>
+      <c r="G39" s="1">
+        <v>80.925929999999994</v>
+      </c>
+      <c r="H39" s="1">
+        <v>74.319730000000007</v>
+      </c>
+      <c r="J39" s="1">
+        <v>55.76923</v>
+      </c>
+      <c r="K39" s="1">
+        <v>80.344830000000002</v>
+      </c>
+      <c r="L39" s="1">
+        <v>79.2517</v>
+      </c>
+      <c r="N39" s="1">
+        <v>54.615380000000002</v>
+      </c>
+      <c r="O39" s="1">
+        <v>79.049300000000002</v>
+      </c>
+      <c r="P39" s="1">
+        <v>76.36054</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B40" s="1">
+        <v>56.826920000000001</v>
+      </c>
+      <c r="C40" s="1">
+        <v>80.710660000000004</v>
+      </c>
+      <c r="D40" s="1">
+        <v>81.122450000000001</v>
+      </c>
+      <c r="F40" s="1">
+        <v>53.173079999999999</v>
+      </c>
+      <c r="G40" s="1">
+        <v>80.831829999999997</v>
+      </c>
+      <c r="H40" s="1">
+        <v>76.020409999999998</v>
+      </c>
+      <c r="J40" s="1">
+        <v>56.923079999999999</v>
+      </c>
+      <c r="K40" s="1">
+        <v>79.391890000000004</v>
+      </c>
+      <c r="L40" s="1">
+        <v>79.931970000000007</v>
+      </c>
+      <c r="N40" s="1">
+        <v>56.057690000000001</v>
+      </c>
+      <c r="O40" s="1">
+        <v>78.387649999999994</v>
+      </c>
+      <c r="P40" s="1">
+        <v>77.721090000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B41" s="1">
+        <v>57.788460000000001</v>
+      </c>
+      <c r="C41" s="1">
+        <v>80.199669999999998</v>
+      </c>
+      <c r="D41" s="1">
+        <v>81.972790000000003</v>
+      </c>
+      <c r="F41" s="1">
+        <v>54.711539999999999</v>
+      </c>
+      <c r="G41" s="1">
+        <v>80.140600000000006</v>
+      </c>
+      <c r="H41" s="1">
+        <v>77.551019999999994</v>
+      </c>
+      <c r="J41" s="1">
+        <v>58.076920000000001</v>
+      </c>
+      <c r="K41" s="1">
+        <v>78.973510000000005</v>
+      </c>
+      <c r="L41" s="1">
+        <v>81.122450000000001</v>
+      </c>
+      <c r="N41" s="1">
+        <v>57.01923</v>
+      </c>
+      <c r="O41" s="1">
+        <v>77.908940000000001</v>
+      </c>
+      <c r="P41" s="1">
+        <v>78.571430000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>58.653849999999998</v>
+      </c>
+      <c r="C42" s="1">
+        <v>80.327870000000004</v>
+      </c>
+      <c r="D42" s="1">
+        <v>83.333330000000004</v>
+      </c>
+      <c r="F42" s="1">
+        <v>55.096150000000002</v>
+      </c>
+      <c r="G42" s="1">
+        <v>80.104709999999997</v>
+      </c>
+      <c r="H42" s="1">
+        <v>78.061220000000006</v>
+      </c>
+      <c r="J42" s="1">
+        <v>59.326920000000001</v>
+      </c>
+      <c r="K42" s="1">
+        <v>78.11994</v>
+      </c>
+      <c r="L42" s="1">
+        <v>81.972790000000003</v>
+      </c>
+      <c r="N42" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="O42" s="1">
+        <v>77.926419999999993</v>
+      </c>
+      <c r="P42" s="1">
+        <v>79.2517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B43" s="1">
+        <v>59.615380000000002</v>
+      </c>
+      <c r="C43" s="1">
+        <v>79.838710000000006</v>
+      </c>
+      <c r="D43" s="1">
+        <v>84.183670000000006</v>
+      </c>
+      <c r="F43" s="1">
+        <v>56.538460000000001</v>
+      </c>
+      <c r="G43" s="1">
+        <v>79.421769999999995</v>
+      </c>
+      <c r="H43" s="1">
+        <v>79.421769999999995</v>
+      </c>
+      <c r="J43" s="1">
+        <v>59.807690000000001</v>
+      </c>
+      <c r="K43" s="1">
+        <v>78.135050000000007</v>
+      </c>
+      <c r="L43" s="1">
+        <v>82.653059999999996</v>
+      </c>
+      <c r="N43" s="1">
+        <v>58.557690000000001</v>
+      </c>
+      <c r="O43" s="1">
+        <v>77.504109999999997</v>
+      </c>
+      <c r="P43" s="1">
+        <v>80.272109999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>60.096150000000002</v>
+      </c>
+      <c r="C44" s="1">
+        <v>79.680000000000007</v>
+      </c>
+      <c r="D44" s="1">
+        <v>84.693879999999993</v>
+      </c>
+      <c r="F44" s="1">
+        <v>57.788460000000001</v>
+      </c>
+      <c r="G44" s="1">
+        <v>78.203000000000003</v>
+      </c>
+      <c r="H44" s="1">
+        <v>79.931970000000007</v>
+      </c>
+      <c r="J44" s="1">
+        <v>60.48077</v>
+      </c>
+      <c r="K44" s="1">
+        <v>78.060410000000005</v>
+      </c>
+      <c r="L44" s="1">
+        <v>83.503399999999999</v>
+      </c>
+      <c r="N44" s="1">
+        <v>59.134619999999998</v>
+      </c>
+      <c r="O44" s="1">
+        <v>77.560980000000001</v>
+      </c>
+      <c r="P44" s="1">
+        <v>81.122450000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
+      <c r="L48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="M48" s="2"/>
+      <c r="N48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S2" t="s">
+      <c r="P48" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B49" s="1">
+        <v>67.514120000000005</v>
+      </c>
+      <c r="C49" s="1">
+        <v>82.008369999999999</v>
+      </c>
+      <c r="D49" s="1">
+        <v>74.524709999999999</v>
+      </c>
+      <c r="F49" s="1">
+        <v>48.870060000000002</v>
+      </c>
+      <c r="G49" s="1">
+        <v>81.502889999999994</v>
+      </c>
+      <c r="H49" s="1">
+        <v>53.612169999999999</v>
+      </c>
+      <c r="J49" s="1">
+        <v>63.27684</v>
+      </c>
+      <c r="K49" s="1">
+        <v>82.589290000000005</v>
+      </c>
+      <c r="L49" s="1">
+        <v>70.342209999999994</v>
+      </c>
+      <c r="N49" s="1">
+        <v>56.77966</v>
+      </c>
+      <c r="O49" s="1">
+        <v>85.074629999999999</v>
+      </c>
+      <c r="P49" s="1">
+        <v>65.019009999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="B50" s="1">
+        <v>74.858760000000004</v>
+      </c>
+      <c r="C50" s="1">
+        <v>81.509429999999995</v>
+      </c>
+      <c r="D50" s="1">
+        <v>82.129279999999994</v>
+      </c>
+      <c r="F50" s="1">
+        <v>64.124290000000002</v>
+      </c>
+      <c r="G50" s="1">
+        <v>78.85463</v>
+      </c>
+      <c r="H50" s="1">
+        <v>68.060839999999999</v>
+      </c>
+      <c r="J50" s="1">
+        <v>72.881360000000001</v>
+      </c>
+      <c r="K50" s="1">
+        <v>79.457359999999994</v>
+      </c>
+      <c r="L50" s="1">
+        <v>77.946770000000001</v>
+      </c>
+      <c r="N50" s="1">
+        <v>66.949150000000003</v>
+      </c>
+      <c r="O50" s="1">
+        <v>81.434600000000003</v>
+      </c>
+      <c r="P50" s="1">
+        <v>73.384029999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B51" s="1">
+        <v>76.553669999999997</v>
+      </c>
+      <c r="C51" s="1">
+        <v>80.442800000000005</v>
+      </c>
+      <c r="D51" s="1">
+        <v>82.88973</v>
+      </c>
+      <c r="F51" s="1">
+        <v>68.644069999999999</v>
+      </c>
+      <c r="G51" s="1">
+        <v>79.012349999999998</v>
+      </c>
+      <c r="H51" s="1">
+        <v>73.003799999999998</v>
+      </c>
+      <c r="J51" s="1">
+        <v>75.141239999999996</v>
+      </c>
+      <c r="K51" s="1">
+        <v>78.571430000000007</v>
+      </c>
+      <c r="L51" s="1">
+        <v>79.467680000000001</v>
+      </c>
+      <c r="N51" s="1">
+        <v>71.751410000000007</v>
+      </c>
+      <c r="O51" s="1">
+        <v>80.708659999999995</v>
+      </c>
+      <c r="P51" s="1">
+        <v>77.946770000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="B52" s="1">
+        <v>77.401129999999995</v>
+      </c>
+      <c r="C52" s="1">
+        <v>79.927009999999996</v>
+      </c>
+      <c r="D52" s="1">
+        <v>83.269959999999998</v>
+      </c>
+      <c r="F52" s="1">
+        <v>70.621470000000002</v>
+      </c>
+      <c r="G52" s="1">
+        <v>79.2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>75.285169999999994</v>
+      </c>
+      <c r="J52" s="1">
+        <v>77.966099999999997</v>
+      </c>
+      <c r="K52" s="1">
+        <v>78.260869999999997</v>
+      </c>
+      <c r="L52" s="1">
+        <v>82.129279999999994</v>
+      </c>
+      <c r="N52" s="1">
+        <v>73.446330000000003</v>
+      </c>
+      <c r="O52" s="1">
+        <v>80.769229999999993</v>
+      </c>
+      <c r="P52" s="1">
+        <v>79.847909999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B53" s="1">
+        <v>78.53107</v>
+      </c>
+      <c r="C53" s="1">
+        <v>80.215829999999997</v>
+      </c>
+      <c r="D53" s="1">
+        <v>84.790869999999998</v>
+      </c>
+      <c r="F53" s="1">
+        <v>74.011300000000006</v>
+      </c>
+      <c r="G53" s="1">
+        <v>79.007630000000006</v>
+      </c>
+      <c r="H53" s="1">
+        <v>78.707220000000007</v>
+      </c>
+      <c r="J53" s="1">
+        <v>78.53107</v>
+      </c>
+      <c r="K53" s="1">
+        <v>78.417270000000002</v>
+      </c>
+      <c r="L53" s="1">
+        <v>82.88973</v>
+      </c>
+      <c r="N53" s="1">
+        <v>74.011300000000006</v>
+      </c>
+      <c r="O53" s="1">
+        <v>80.916030000000006</v>
+      </c>
+      <c r="P53" s="1">
+        <v>80.608369999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B54" s="1">
+        <v>79.9435</v>
+      </c>
+      <c r="C54" s="1">
+        <v>79.85866</v>
+      </c>
+      <c r="D54" s="1">
+        <v>85.931560000000005</v>
+      </c>
+      <c r="F54" s="1">
+        <v>75.988699999999994</v>
+      </c>
+      <c r="G54" s="1">
+        <v>78.438659999999999</v>
+      </c>
+      <c r="H54" s="1">
+        <v>80.228139999999996</v>
+      </c>
+      <c r="J54" s="1">
+        <v>79.9435</v>
+      </c>
+      <c r="K54" s="1">
+        <v>78.09187</v>
+      </c>
+      <c r="L54" s="1">
+        <v>84.030420000000007</v>
+      </c>
+      <c r="N54" s="1">
+        <v>75.141239999999996</v>
+      </c>
+      <c r="O54" s="1">
+        <v>80.827070000000006</v>
+      </c>
+      <c r="P54" s="1">
+        <v>81.749049999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B55" s="1">
+        <v>80.508470000000003</v>
+      </c>
+      <c r="C55" s="1">
+        <v>80</v>
+      </c>
+      <c r="D55" s="1">
+        <v>86.692019999999999</v>
+      </c>
+      <c r="F55" s="1">
+        <v>78.248589999999993</v>
+      </c>
+      <c r="G55" s="1">
+        <v>78.339349999999996</v>
+      </c>
+      <c r="H55" s="1">
+        <v>82.509510000000006</v>
+      </c>
+      <c r="J55" s="1">
+        <v>80.790959999999998</v>
+      </c>
+      <c r="K55" s="1">
+        <v>77.972030000000004</v>
+      </c>
+      <c r="L55" s="1">
+        <v>84.790869999999998</v>
+      </c>
+      <c r="N55" s="1">
+        <v>76.553669999999997</v>
+      </c>
+      <c r="O55" s="1">
+        <v>80.811809999999994</v>
+      </c>
+      <c r="P55" s="1">
+        <v>83.269959999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B56" s="1">
+        <v>81.355930000000001</v>
+      </c>
+      <c r="C56" s="1">
+        <v>79.513890000000004</v>
+      </c>
+      <c r="D56" s="1">
+        <v>87.072239999999994</v>
+      </c>
+      <c r="F56" s="1">
+        <v>79.096050000000005</v>
+      </c>
+      <c r="G56" s="1">
+        <v>78.571430000000007</v>
+      </c>
+      <c r="H56" s="1">
+        <v>83.650189999999995</v>
+      </c>
+      <c r="J56" s="1">
+        <v>82.203389999999999</v>
+      </c>
+      <c r="K56" s="1">
+        <v>77.319590000000005</v>
+      </c>
+      <c r="L56" s="1">
+        <v>85.551329999999993</v>
+      </c>
+      <c r="N56" s="1">
+        <v>77.401129999999995</v>
+      </c>
+      <c r="O56" s="1">
+        <v>80.656930000000003</v>
+      </c>
+      <c r="P56" s="1">
+        <v>84.030420000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B57" s="1">
+        <v>81.638419999999996</v>
+      </c>
+      <c r="C57" s="1">
+        <v>79.238749999999996</v>
+      </c>
+      <c r="D57" s="1">
+        <v>87.072239999999994</v>
+      </c>
+      <c r="F57" s="1">
+        <v>79.9435</v>
+      </c>
+      <c r="G57" s="1">
+        <v>78.09187</v>
+      </c>
+      <c r="H57" s="1">
+        <v>84.030420000000007</v>
+      </c>
+      <c r="J57" s="1">
+        <v>82.203389999999999</v>
+      </c>
+      <c r="K57" s="1">
+        <v>77.319590000000005</v>
+      </c>
+      <c r="L57" s="1">
+        <v>85.551329999999993</v>
+      </c>
+      <c r="N57" s="1">
+        <v>78.53107</v>
+      </c>
+      <c r="O57" s="1">
+        <v>80.935249999999996</v>
+      </c>
+      <c r="P57" s="1">
+        <v>85.551329999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B58" s="1">
+        <v>83.050849999999997</v>
+      </c>
+      <c r="C58" s="1">
+        <v>79.591840000000005</v>
+      </c>
+      <c r="D58" s="1">
+        <v>88.973380000000006</v>
+      </c>
+      <c r="F58" s="1">
+        <v>81.920900000000003</v>
+      </c>
+      <c r="G58" s="1">
+        <v>77.931030000000007</v>
+      </c>
+      <c r="H58" s="1">
+        <v>85.931560000000005</v>
+      </c>
+      <c r="J58" s="1">
+        <v>82.768360000000001</v>
+      </c>
+      <c r="K58" s="1">
+        <v>77.133110000000002</v>
+      </c>
+      <c r="L58" s="1">
+        <v>85.931560000000005</v>
+      </c>
+      <c r="N58" s="1">
+        <v>79.096050000000005</v>
+      </c>
+      <c r="O58" s="1">
+        <v>80.714290000000005</v>
+      </c>
+      <c r="P58" s="1">
+        <v>85.931560000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B59" s="1">
+        <v>83.333330000000004</v>
+      </c>
+      <c r="C59" s="1">
+        <v>79.322029999999998</v>
+      </c>
+      <c r="D59" s="1">
+        <v>88.973380000000006</v>
+      </c>
+      <c r="F59" s="1">
+        <v>83.333330000000004</v>
+      </c>
+      <c r="G59" s="1">
+        <v>77.627120000000005</v>
+      </c>
+      <c r="H59" s="1">
+        <v>87.072239999999994</v>
+      </c>
+      <c r="J59" s="1">
+        <v>84.180790000000002</v>
+      </c>
+      <c r="K59" s="1">
+        <v>76.845640000000003</v>
+      </c>
+      <c r="L59" s="1">
+        <v>87.072239999999994</v>
+      </c>
+      <c r="N59" s="1">
+        <v>79.661019999999994</v>
+      </c>
+      <c r="O59" s="1">
+        <v>80.496449999999996</v>
+      </c>
+      <c r="P59" s="1">
+        <v>86.311790000000002</v>
       </c>
     </row>
   </sheetData>
